--- a/data/Game/Check.xlsx
+++ b/data/Game/Check.xlsx
@@ -26,7 +26,7 @@
     <t xml:space="preserve">lockpick</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.209 Patch 2</t>
+    <t xml:space="preserve">EA 23.222 Patch 1</t>
   </si>
   <si>
     <t xml:space="preserve">dogmeat</t>
